--- a/DallasDesignSprint/ScrapingOutput/locations/LubbenPlaza/LubbenPlaza.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/LubbenPlaza/LubbenPlaza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="5">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="9">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="10">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
       </c>
     </row>
     <row r="11">
@@ -740,10 +740,1038 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.7764143</v>
+        <v>32.7763139</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.8180674</v>
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Destinee Sanders</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nice place to wait for public transportation or read a book.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>carolina garcia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nice to  place.  good to sit down and relax</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Randle Wilkerson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alot of homeless people landscap don't look good</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Andrew Vazquez</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>love i go there atleast once a week</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jacqueline Smith</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beautiful artworks here including a Jesus Moroles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8 years ago</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kent Johnson</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Beautiful but under utilized. If one more people knew about it</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12 years ago</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brad Ford Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Harrow, 1992 by Texas artist Linnea Glatt.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 years ago</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Carmen Elizabeth</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lots to do and see.   Visiting from Austin.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Troy R (TroyTX)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Beautiful art park!!</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Antonio Lares</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nice and warm pool</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>John Babiarz</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nice, quiet, shady spot.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anthony D</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Its interesting</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Javier Enrique Palacios</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A very nice and quiet place! Translated by Google ・ See original (Spanish)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Javier Sostres</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Very nice place highly recommended Translated by Google ・ See original (Spanish)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dhanashree M</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Md. Fakhrul Islam Noori</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>It feels great. Translated by Google ・ See original (Bangla)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chelo Guzman</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Relaxed Translated by Google ・ See original (Spanish)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C denn</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2 weeks ago</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ahmad AbuShaar</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sheila Rodriguez</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>a year ago</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Robert “REd KING” Gilliam</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Christopher Robbins</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Maria S</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dhanjit giri</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MJ McLean</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Queen “Izza Shay” Shay22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4 years ago</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sindhu k</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mohannad abuakel</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5 years ago</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Juan Rivera Rivera</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ale Meza</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jerume Tabangcora</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>annmarie smith</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sharon Larson</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Corban Garcia</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gunel Balci</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>bobrisby</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Regina Wilkerson</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lawrence White</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ron clark</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-96.8052035</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Martha Kemp</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6 years ago</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>32.7763139</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-96.8052035</v>
       </c>
     </row>
   </sheetData>
